--- a/Raw_Data/F037_For_PR_DOA_5.xlsx
+++ b/Raw_Data/F037_For_PR_DOA_5.xlsx
@@ -4,42 +4,46 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="7670" firstSheet="8" activeTab="11"/>
+    <workbookView windowWidth="19190" windowHeight="7670" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="AMP_Uncut_Sheet" sheetId="3" r:id="rId1"/>
-    <sheet name="AMP_2_Uncut_Sheet" sheetId="8" r:id="rId2"/>
-    <sheet name="MET_Uncut_Sheet" sheetId="9" r:id="rId3"/>
-    <sheet name="MET_2_Uncut_Sheet" sheetId="10" r:id="rId4"/>
-    <sheet name="MOP_Uncut_Sheet" sheetId="7" r:id="rId5"/>
-    <sheet name="MOP_2_Uncut_Sheet" sheetId="11" r:id="rId6"/>
-    <sheet name="BZO_Uncut_Sheet" sheetId="4" r:id="rId7"/>
-    <sheet name="BZO_2_Uncut_Sheet" sheetId="12" r:id="rId8"/>
-    <sheet name="THC_Uncut_Sheet" sheetId="6" r:id="rId9"/>
-    <sheet name="THC_2_Uncut_Sheet" sheetId="13" r:id="rId10"/>
-    <sheet name="KET_Uncut_Sheet" sheetId="5" r:id="rId11"/>
-    <sheet name="Cassette" sheetId="2" r:id="rId12"/>
+    <sheet name="AMP_Uncut_Sheet_1" sheetId="3" r:id="rId1"/>
+    <sheet name="AMP_Uncut_Sheet_2" sheetId="8" r:id="rId2"/>
+    <sheet name="MET_Uncut_Sheet_1" sheetId="9" r:id="rId3"/>
+    <sheet name="MET_Uncut_Sheet_2" sheetId="10" r:id="rId4"/>
+    <sheet name="MOP_Uncut_Sheet_1" sheetId="7" r:id="rId5"/>
+    <sheet name="MOP_Uncut_Sheet_2" sheetId="11" r:id="rId6"/>
+    <sheet name="BZO_Uncut_Sheet_1" sheetId="4" r:id="rId7"/>
+    <sheet name="BZO_Uncut_Sheet_2" sheetId="12" r:id="rId8"/>
+    <sheet name="THC_Uncut_Sheet_1" sheetId="6" r:id="rId9"/>
+    <sheet name="THC_Uncut_Sheet_2" sheetId="13" r:id="rId10"/>
+    <sheet name="KET_Uncut_Sheet_1" sheetId="5" r:id="rId11"/>
+    <sheet name="DOA_5_Cassette" sheetId="2" r:id="rId12"/>
+    <sheet name="DOA_4_Cassette" sheetId="14" r:id="rId13"/>
+    <sheet name="DOA_3_Cassette" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AMP_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">BZO_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">Cassette!$A$1:$H$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">MOP_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">KET_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">THC_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">AMP_2_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">MET_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">MET_2_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">MOP_2_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">BZO_2_Uncut_Sheet!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">THC_2_Uncut_Sheet!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AMP_Uncut_Sheet_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">BZO_Uncut_Sheet_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">DOA_5_Cassette!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">MOP_Uncut_Sheet_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">KET_Uncut_Sheet_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">THC_Uncut_Sheet_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">AMP_Uncut_Sheet_2!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">MET_Uncut_Sheet_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">MET_Uncut_Sheet_2!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">MOP_Uncut_Sheet_2!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">BZO_Uncut_Sheet_2!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">THC_Uncut_Sheet_2!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">DOA_4_Cassette!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">DOA_3_Cassette!$A$1:$H$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="29">
   <si>
     <t>Doc. No</t>
   </si>
@@ -86,19 +90,25 @@
     <t>13.07.2022</t>
   </si>
   <si>
-    <t>LOT NUMBER</t>
+    <t>2023-10</t>
   </si>
   <si>
     <t>09.06.2022</t>
   </si>
   <si>
+    <t>2024-04</t>
+  </si>
+  <si>
     <t>18.05.2022</t>
+  </si>
+  <si>
+    <t>2024-03</t>
   </si>
   <si>
     <t>18.03.2022</t>
   </si>
   <si>
-    <t>PR-FLU</t>
+    <t>2022-12</t>
   </si>
   <si>
     <t>Caps</t>
@@ -106,17 +116,32 @@
   <si>
     <t>Panel</t>
   </si>
+  <si>
+    <t>LOT NUMBER</t>
+  </si>
+  <si>
+    <t>PR-DOA-4</t>
+  </si>
+  <si>
+    <t>07.06.2022</t>
+  </si>
+  <si>
+    <t>PR-DOA-3</t>
+  </si>
+  <si>
+    <t>12.04.2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -172,31 +197,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,62 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -280,10 +235,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,11 +296,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,7 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,31 +356,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,13 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,49 +404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +440,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,61 +512,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,11 +1008,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,32 +1062,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1049,25 +1083,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,148 +1108,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1249,10 +1274,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2403,6 +2428,464 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="29210"/>
+          <a:ext cx="1766570" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="19050"/>
+          <a:ext cx="3138170" cy="327025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t> Material Stock Card</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="29210"/>
+          <a:ext cx="1766570" cy="307340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="19050"/>
+          <a:ext cx="3138170" cy="327025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:rPr>
+            <a:t> Material Stock Card</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4495,8 +4978,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -4624,7 +5107,7 @@
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
     </row>
-    <row r="12" ht="15.5" spans="1:7">
+    <row r="12" ht="16.25" spans="1:7">
       <c r="A12" s="35" t="s">
         <v>14</v>
       </c>
@@ -4654,7 +5137,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="64"/>
-      <c r="G13" s="45"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="41"/>
@@ -5010,7 +5493,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -5155,7 +5638,7 @@
         <v>74</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
@@ -5523,8 +6006,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -5654,7 +6137,7 @@
     </row>
     <row r="12" ht="15.5" spans="1:7">
       <c r="A12" s="35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="61">
         <v>18</v>
@@ -5669,7 +6152,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
@@ -6037,7 +6520,1037 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A5" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="4" width="10.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="13.3363636363636" customWidth="1"/>
+    <col min="6" max="6" width="11.6636363636364" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8">
+        <v>41473</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:8">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:8">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:8">
+      <c r="A12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="36">
+        <v>7192</v>
+      </c>
+      <c r="C12" s="37">
+        <v>1275</v>
+      </c>
+      <c r="D12" s="35">
+        <f>B12-C12</f>
+        <v>5917</v>
+      </c>
+      <c r="E12" s="38">
+        <v>7455</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1275</v>
+      </c>
+      <c r="G12" s="35">
+        <f>E12-F12</f>
+        <v>6180</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42">
+        <f>D12</f>
+        <v>5917</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42">
+        <f>G12</f>
+        <v>6180</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="45"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="45"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" scale="90" orientation="portrait"/>
+  <headerFooter/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
+    <col min="3" max="4" width="10.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="13.3363636363636" customWidth="1"/>
+    <col min="6" max="6" width="11.6636363636364" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="13.1090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8">
+        <v>41473</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="15.25"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:8">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:8">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:8">
+      <c r="A12" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="36">
+        <v>8092</v>
+      </c>
+      <c r="C12" s="37">
+        <v>131</v>
+      </c>
+      <c r="D12" s="35">
+        <f>B12-C12</f>
+        <v>7961</v>
+      </c>
+      <c r="E12" s="38">
+        <v>8128</v>
+      </c>
+      <c r="F12" s="39">
+        <v>131</v>
+      </c>
+      <c r="G12" s="35">
+        <f>E12-F12</f>
+        <v>7997</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42">
+        <f>D12</f>
+        <v>7961</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42">
+        <f>G12</f>
+        <v>7997</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="45"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="45"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" scale="90" orientation="portrait"/>
+  <headerFooter/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -6099,7 +7612,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -6149,14 +7662,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="25" t="s">
@@ -6186,43 +7699,43 @@
     </row>
     <row r="12" ht="15.5" spans="1:8">
       <c r="A12" s="35" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B12" s="36">
-        <v>7192</v>
+        <v>393</v>
       </c>
       <c r="C12" s="37">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="D12" s="35">
         <f>B12-C12</f>
-        <v>5917</v>
+        <v>393</v>
       </c>
       <c r="E12" s="38">
-        <v>7455</v>
+        <v>398</v>
       </c>
       <c r="F12" s="39">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="G12" s="35">
         <f>E12-F12</f>
-        <v>6180</v>
+        <v>398</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:8">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <f>D12</f>
-        <v>5917</v>
+        <v>393</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="41"/>
       <c r="E13" s="42">
         <f>G12</f>
-        <v>6180</v>
+        <v>398</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="41"/>
@@ -6553,7 +8066,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -6698,7 +8211,7 @@
         <v>74</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
@@ -7067,7 +8580,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -7581,7 +9094,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -7726,7 +9239,7 @@
         <v>74</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
@@ -8095,7 +9608,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -8609,7 +10122,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -8754,7 +10267,7 @@
         <v>74</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
@@ -9123,7 +10636,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -9253,7 +10766,7 @@
     </row>
     <row r="12" ht="15.5" spans="1:7">
       <c r="A12" s="35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="61">
         <v>8</v>
@@ -9268,7 +10781,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
@@ -9637,7 +11150,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -9782,7 +11295,7 @@
         <v>120</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
@@ -10151,7 +11664,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>

--- a/Raw_Data/F037_For_PR_DOA_5.xlsx
+++ b/Raw_Data/F037_For_PR_DOA_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19190" windowHeight="7670" firstSheet="10" activeTab="10"/>
+    <workbookView windowWidth="19190" windowHeight="7670" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="AMP_Uncut_Sheet_1" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="THC_Uncut_Sheet_1" sheetId="6" r:id="rId9"/>
     <sheet name="THC_Uncut_Sheet_2" sheetId="13" r:id="rId10"/>
     <sheet name="KET_Uncut_Sheet_1" sheetId="5" r:id="rId11"/>
-    <sheet name="PR_DOA_5_Cassette" sheetId="2" r:id="rId12"/>
-    <sheet name="PR_DOA_4_Cassette" sheetId="14" r:id="rId13"/>
-    <sheet name="PR_DOA_3_Cassette" sheetId="15" r:id="rId14"/>
+    <sheet name="PR_DOA_5_Cassette_1" sheetId="2" r:id="rId12"/>
+    <sheet name="PR_DOA_4_Cassette_1" sheetId="14" r:id="rId13"/>
+    <sheet name="PR_DOA_3_Cassette_1" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">AMP_Uncut_Sheet_1!$A$1:$G$42</definedName>
@@ -32,9 +32,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">MET_Uncut_Sheet_2!$A$1:$G$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">MOP_Uncut_Sheet_1!$A$1:$G$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">MOP_Uncut_Sheet_2!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">PR_DOA_3_Cassette!$A$1:$H$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">PR_DOA_4_Cassette!$A$1:$H$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">PR_DOA_5_Cassette!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">PR_DOA_3_Cassette_1!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">PR_DOA_4_Cassette_1!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">PR_DOA_5_Cassette_1!$A$1:$H$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">THC_Uncut_Sheet_1!$A$1:$G$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">THC_Uncut_Sheet_2!$A$1:$G$42</definedName>
   </definedNames>
@@ -143,9 +143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
   </numFmts>
@@ -203,9 +203,48 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +258,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -227,62 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,30 +289,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +327,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,19 +362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,13 +386,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,55 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,31 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +464,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -536,13 +488,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,6 +1044,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1055,24 +1084,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,17 +1105,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1114,16 +1114,16 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,127 +1135,127 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6022,7 +6022,7 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -7602,8 +7602,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
